--- a/ASP.NET CORE/HRMNS/DOC_HR.xlsx
+++ b/ASP.NET CORE/HRMNS/DOC_HR.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-Responsitory\DotNet\ASP.NET CORE\HRMNS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="HR" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="110">
   <si>
     <t>QUẢN LÝ THÔNG TIN NHÂN SỰ</t>
   </si>
@@ -352,12 +352,15 @@
   </si>
   <si>
     <t>NĂM</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,12 +416,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -434,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -443,6 +452,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,93 +742,102 @@
   </sheetPr>
   <dimension ref="B2:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
